--- a/Biomass Calculations/E_Fish Biomass Regression Info - Sarah Perry.xlsx
+++ b/Biomass Calculations/E_Fish Biomass Regression Info - Sarah Perry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\FishRegressions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharvey\Documents\Suisun Fish Biomass\Suisun-fish-biomass\Biomass Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F90812-9908-41EA-BFAC-093383055C09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC97188-F31A-4212-A5E6-68117F8487FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1B84495F-E94D-4D74-9611-F5442FA05D56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{1B84495F-E94D-4D74-9611-F5442FA05D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish Names" sheetId="5" r:id="rId1"/>
@@ -3065,16 +3065,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FE646F-11C9-4F0C-AC88-D40DCB22ED7F}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>339</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>167</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
@@ -3155,7 +3155,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
@@ -3169,7 +3169,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>6</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>121</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>130</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>1</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>137</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>13</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>10</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>378</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>348</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>311</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>152</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>155</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
     <sortCondition ref="A2"/>
@@ -3456,18 +3456,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="15"/>
-    <col min="3" max="4" width="9.140625" style="15" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" style="15"/>
-    <col min="17" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="2" width="9.1796875" style="15"/>
+    <col min="3" max="4" width="9.1796875" style="15" customWidth="1"/>
+    <col min="5" max="14" width="9.1796875" style="15"/>
+    <col min="15" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>82</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>339</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>167</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3711,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>121</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
@@ -4085,7 +4086,7 @@
       </c>
       <c r="N16" s="35"/>
     </row>
-    <row r="17" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>137</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>378</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>348</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>311</v>
       </c>
@@ -4415,7 +4416,7 @@
       </c>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>152</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>155</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>392</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>412</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>422</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>420</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>418</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>448</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>400</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>408</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>424</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>436</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>444</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>458</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>406</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>442</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>396</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>394</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>414</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>428</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>430</v>
       </c>
@@ -5253,7 +5254,7 @@
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>434</v>
       </c>
@@ -5299,7 +5300,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>446</v>
       </c>
@@ -5336,7 +5337,7 @@
       <c r="P49" s="18"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>452</v>
       </c>
@@ -5373,7 +5374,7 @@
       <c r="P50" s="18"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
         <v>454</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
         <v>456</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>0.12039999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
         <v>432</v>
       </c>
@@ -5495,8 +5496,8 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>398</v>
       </c>
@@ -5508,7 +5509,7 @@
       </c>
       <c r="D55" s="34"/>
     </row>
-    <row r="56" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>402</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>404</v>
       </c>
@@ -5531,7 +5532,7 @@
       </c>
       <c r="D57" s="34"/>
     </row>
-    <row r="58" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>410</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>416</v>
       </c>
@@ -5554,7 +5555,7 @@
       </c>
       <c r="D59" s="34"/>
     </row>
-    <row r="60" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>426</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>438</v>
       </c>
@@ -5577,7 +5578,7 @@
       </c>
       <c r="D61" s="34"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>440</v>
       </c>
@@ -5589,7 +5590,7 @@
       </c>
       <c r="D62" s="34"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>450</v>
       </c>
@@ -5601,7 +5602,7 @@
       </c>
       <c r="D63" s="34"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
         <v>5</v>
       </c>
@@ -5625,17 +5626,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B04E18-B7C2-44A7-81C7-6EECD0E4712B}">
   <dimension ref="A1:S543"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G546" sqref="G546"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A522" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D543" sqref="D543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>82</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>339</v>
       </c>
@@ -5766,6 +5767,14 @@
       <c r="J3" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="K3" s="13">
+        <f>AVERAGE(D3:D15,D17,D18,D19,D20,D22,D23,D24,D27,D29)</f>
+        <v>1.3429545454545454E-2</v>
+      </c>
+      <c r="L3" s="13">
+        <f>AVERAGE(E3:E34)</f>
+        <v>3.1655937499999998</v>
+      </c>
       <c r="N3" s="13">
         <v>1009</v>
       </c>
@@ -5785,7 +5794,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>339</v>
       </c>
@@ -5816,6 +5825,14 @@
       <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="K4" s="13">
+        <f>_xlfn.STDEV.S(D3:D34)</f>
+        <v>1.3451379437446606E-2</v>
+      </c>
+      <c r="L4" s="13">
+        <f>_xlfn.STDEV.S(E3:E34)</f>
+        <v>0.22348888395175276</v>
+      </c>
       <c r="N4" s="13">
         <v>1146</v>
       </c>
@@ -5835,7 +5852,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>339</v>
       </c>
@@ -5885,7 +5902,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>339</v>
       </c>
@@ -5935,7 +5952,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>339</v>
       </c>
@@ -5985,7 +6002,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>339</v>
       </c>
@@ -6035,7 +6052,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>339</v>
       </c>
@@ -6085,7 +6102,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>339</v>
       </c>
@@ -6135,7 +6152,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>339</v>
       </c>
@@ -6185,7 +6202,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>339</v>
       </c>
@@ -6235,7 +6252,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>339</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>339</v>
       </c>
@@ -6335,7 +6352,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>339</v>
       </c>
@@ -6385,7 +6402,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>339</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>339</v>
       </c>
@@ -6485,7 +6502,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>339</v>
       </c>
@@ -6535,7 +6552,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>339</v>
       </c>
@@ -6585,7 +6602,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>339</v>
       </c>
@@ -6635,7 +6652,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>339</v>
       </c>
@@ -6685,7 +6702,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>339</v>
       </c>
@@ -6732,7 +6749,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>339</v>
       </c>
@@ -6782,7 +6799,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>339</v>
       </c>
@@ -6832,7 +6849,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>339</v>
       </c>
@@ -6882,7 +6899,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>339</v>
       </c>
@@ -6932,7 +6949,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>339</v>
       </c>
@@ -6982,7 +6999,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>339</v>
       </c>
@@ -7032,7 +7049,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>339</v>
       </c>
@@ -7082,7 +7099,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>339</v>
       </c>
@@ -7132,7 +7149,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>339</v>
       </c>
@@ -7182,7 +7199,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>339</v>
       </c>
@@ -7232,7 +7249,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>339</v>
       </c>
@@ -7282,7 +7299,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>339</v>
       </c>
@@ -7335,7 +7352,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="39" t="s">
         <v>167</v>
       </c>
@@ -7379,7 +7396,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="39" t="s">
         <v>167</v>
       </c>
@@ -7423,7 +7440,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="39" t="s">
         <v>167</v>
       </c>
@@ -7467,7 +7484,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
         <v>167</v>
       </c>
@@ -7517,7 +7534,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="39" t="s">
         <v>167</v>
       </c>
@@ -7567,7 +7584,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>167</v>
       </c>
@@ -7611,7 +7628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>167</v>
       </c>
@@ -7661,7 +7678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="39" t="s">
         <v>167</v>
       </c>
@@ -7708,7 +7725,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="39" t="s">
         <v>167</v>
       </c>
@@ -7752,7 +7769,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>167</v>
       </c>
@@ -7802,7 +7819,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="39" t="s">
         <v>167</v>
       </c>
@@ -7852,7 +7869,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>8</v>
       </c>
@@ -7890,7 +7907,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>8</v>
       </c>
@@ -7940,7 +7957,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>8</v>
       </c>
@@ -7990,7 +8007,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>8</v>
       </c>
@@ -8043,7 +8060,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8110,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>7</v>
       </c>
@@ -8143,7 +8160,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>7</v>
       </c>
@@ -8193,7 +8210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>7</v>
       </c>
@@ -8243,7 +8260,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>7</v>
       </c>
@@ -8293,7 +8310,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>7</v>
       </c>
@@ -8343,7 +8360,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8410,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>7</v>
       </c>
@@ -8443,7 +8460,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>7</v>
       </c>
@@ -8493,7 +8510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>7</v>
       </c>
@@ -8543,7 +8560,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>7</v>
       </c>
@@ -8593,7 +8610,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>7</v>
       </c>
@@ -8643,7 +8660,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>7</v>
       </c>
@@ -8743,7 +8760,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>7</v>
       </c>
@@ -8793,7 +8810,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>7</v>
       </c>
@@ -8843,7 +8860,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>7</v>
       </c>
@@ -8890,7 +8907,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>7</v>
       </c>
@@ -8937,7 +8954,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>7</v>
       </c>
@@ -8984,7 +9001,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>7</v>
       </c>
@@ -9034,7 +9051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9101,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>7</v>
       </c>
@@ -9125,7 +9142,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>7</v>
       </c>
@@ -9169,7 +9186,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>7</v>
       </c>
@@ -9213,7 +9230,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>7</v>
       </c>
@@ -9266,7 +9283,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
         <v>7</v>
       </c>
@@ -9310,7 +9327,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>7</v>
       </c>
@@ -9354,7 +9371,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="s">
         <v>7</v>
       </c>
@@ -9398,7 +9415,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
         <v>7</v>
       </c>
@@ -9442,7 +9459,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>7</v>
       </c>
@@ -9489,7 +9506,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>7</v>
       </c>
@@ -9536,7 +9553,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>7</v>
       </c>
@@ -9586,7 +9603,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="s">
         <v>7</v>
       </c>
@@ -9639,7 +9656,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>7</v>
       </c>
@@ -9692,7 +9709,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>7</v>
       </c>
@@ -9745,7 +9762,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>7</v>
       </c>
@@ -9798,7 +9815,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>7</v>
       </c>
@@ -9851,7 +9868,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>7</v>
       </c>
@@ -9898,7 +9915,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>7</v>
       </c>
@@ -9951,7 +9968,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10021,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
         <v>7</v>
       </c>
@@ -10057,7 +10074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>7</v>
       </c>
@@ -10110,7 +10127,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
         <v>7</v>
       </c>
@@ -10163,7 +10180,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
         <v>7</v>
       </c>
@@ -10216,7 +10233,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
         <v>7</v>
       </c>
@@ -10269,7 +10286,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
         <v>7</v>
       </c>
@@ -10319,7 +10336,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
         <v>7</v>
       </c>
@@ -10369,7 +10386,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
         <v>7</v>
       </c>
@@ -10422,7 +10439,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
         <v>7</v>
       </c>
@@ -10472,7 +10489,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
         <v>7</v>
       </c>
@@ -10525,7 +10542,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
         <v>7</v>
       </c>
@@ -10578,7 +10595,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="s">
         <v>7</v>
       </c>
@@ -10631,7 +10648,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
         <v>7</v>
       </c>
@@ -10684,7 +10701,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
         <v>7</v>
       </c>
@@ -10734,7 +10751,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="s">
         <v>7</v>
       </c>
@@ -10784,7 +10801,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
         <v>7</v>
       </c>
@@ -10837,7 +10854,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
         <v>7</v>
       </c>
@@ -10890,7 +10907,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
         <v>7</v>
       </c>
@@ -10943,7 +10960,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>7</v>
       </c>
@@ -10993,7 +11010,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
         <v>7</v>
       </c>
@@ -11046,7 +11063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
         <v>7</v>
       </c>
@@ -11099,7 +11116,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
         <v>7</v>
       </c>
@@ -11152,7 +11169,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>7</v>
       </c>
@@ -11205,7 +11222,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
         <v>7</v>
       </c>
@@ -11255,7 +11272,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
         <v>7</v>
       </c>
@@ -11305,7 +11322,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>7</v>
       </c>
@@ -11358,7 +11375,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
         <v>7</v>
       </c>
@@ -11411,7 +11428,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
         <v>7</v>
       </c>
@@ -11461,7 +11478,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
         <v>7</v>
       </c>
@@ -11511,7 +11528,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
         <v>7</v>
       </c>
@@ -11561,7 +11578,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
         <v>7</v>
       </c>
@@ -11611,7 +11628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="s">
         <v>7</v>
       </c>
@@ -11661,7 +11678,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="s">
         <v>7</v>
       </c>
@@ -11711,7 +11728,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
         <v>7</v>
       </c>
@@ -11761,7 +11778,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>7</v>
       </c>
@@ -11814,7 +11831,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
         <v>7</v>
       </c>
@@ -11864,7 +11881,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>7</v>
       </c>
@@ -11914,7 +11931,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>7</v>
       </c>
@@ -11967,7 +11984,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
         <v>7</v>
       </c>
@@ -12017,7 +12034,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
         <v>7</v>
       </c>
@@ -12067,7 +12084,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
         <v>7</v>
       </c>
@@ -12173,7 +12190,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
         <v>7</v>
       </c>
@@ -12226,7 +12243,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
         <v>7</v>
       </c>
@@ -12279,7 +12296,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
         <v>7</v>
       </c>
@@ -12332,7 +12349,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
         <v>7</v>
       </c>
@@ -12382,7 +12399,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
         <v>7</v>
       </c>
@@ -12432,7 +12449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
         <v>7</v>
       </c>
@@ -12485,7 +12502,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
         <v>7</v>
       </c>
@@ -12535,7 +12552,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
         <v>7</v>
       </c>
@@ -12588,7 +12605,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
         <v>7</v>
       </c>
@@ -12641,7 +12658,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
         <v>7</v>
       </c>
@@ -12691,7 +12708,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
         <v>7</v>
       </c>
@@ -12744,7 +12761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
         <v>7</v>
       </c>
@@ -12797,7 +12814,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="s">
         <v>7</v>
       </c>
@@ -12850,7 +12867,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="s">
         <v>7</v>
       </c>
@@ -12903,7 +12920,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
         <v>7</v>
       </c>
@@ -12953,7 +12970,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
         <v>7</v>
       </c>
@@ -13003,7 +13020,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="s">
         <v>7</v>
       </c>
@@ -13053,7 +13070,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="s">
         <v>7</v>
       </c>
@@ -13103,7 +13120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
         <v>7</v>
       </c>
@@ -13153,7 +13170,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
         <v>7</v>
       </c>
@@ -13203,7 +13220,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
         <v>7</v>
       </c>
@@ -13253,7 +13270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
         <v>7</v>
       </c>
@@ -13306,7 +13323,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
         <v>7</v>
       </c>
@@ -13356,7 +13373,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
         <v>7</v>
       </c>
@@ -13409,7 +13426,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="s">
         <v>7</v>
       </c>
@@ -13459,7 +13476,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="s">
         <v>7</v>
       </c>
@@ -13512,7 +13529,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="s">
         <v>7</v>
       </c>
@@ -13565,7 +13582,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13632,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
         <v>7</v>
       </c>
@@ -13665,7 +13682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13735,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="s">
         <v>7</v>
       </c>
@@ -13771,7 +13788,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="s">
         <v>7</v>
       </c>
@@ -13824,7 +13841,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="s">
         <v>7</v>
       </c>
@@ -13877,7 +13894,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="s">
         <v>7</v>
       </c>
@@ -13930,7 +13947,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +14000,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="s">
         <v>7</v>
       </c>
@@ -14033,7 +14050,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="s">
         <v>7</v>
       </c>
@@ -14086,7 +14103,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="s">
         <v>7</v>
       </c>
@@ -14139,7 +14156,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="13" t="s">
         <v>7</v>
       </c>
@@ -14192,7 +14209,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="s">
         <v>7</v>
       </c>
@@ -14242,7 +14259,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="s">
         <v>7</v>
       </c>
@@ -14295,7 +14312,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
         <v>7</v>
       </c>
@@ -14345,7 +14362,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
         <v>7</v>
       </c>
@@ -14398,7 +14415,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
         <v>7</v>
       </c>
@@ -14451,7 +14468,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
         <v>7</v>
       </c>
@@ -14504,7 +14521,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="13" t="s">
         <v>7</v>
       </c>
@@ -14557,7 +14574,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="s">
         <v>7</v>
       </c>
@@ -14610,7 +14627,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="s">
         <v>7</v>
       </c>
@@ -14660,7 +14677,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="s">
         <v>7</v>
       </c>
@@ -14713,7 +14730,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="s">
         <v>7</v>
       </c>
@@ -14766,7 +14783,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="s">
         <v>7</v>
       </c>
@@ -14819,7 +14836,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="s">
         <v>7</v>
       </c>
@@ -14869,7 +14886,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="s">
         <v>7</v>
       </c>
@@ -14922,7 +14939,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="s">
         <v>7</v>
       </c>
@@ -14975,7 +14992,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="s">
         <v>7</v>
       </c>
@@ -15028,7 +15045,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="s">
         <v>7</v>
       </c>
@@ -15081,7 +15098,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
         <v>7</v>
       </c>
@@ -15134,7 +15151,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="s">
         <v>7</v>
       </c>
@@ -15187,7 +15204,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="13" t="s">
         <v>7</v>
       </c>
@@ -15240,7 +15257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="13" t="s">
         <v>7</v>
       </c>
@@ -15290,7 +15307,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="13" t="s">
         <v>7</v>
       </c>
@@ -15340,7 +15357,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="s">
         <v>7</v>
       </c>
@@ -15390,7 +15407,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="13" t="s">
         <v>7</v>
       </c>
@@ -15440,7 +15457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="s">
         <v>7</v>
       </c>
@@ -15490,7 +15507,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="13" t="s">
         <v>7</v>
       </c>
@@ -15540,7 +15557,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="13" t="s">
         <v>7</v>
       </c>
@@ -15590,7 +15607,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="s">
         <v>7</v>
       </c>
@@ -15640,7 +15657,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="13" t="s">
         <v>7</v>
       </c>
@@ -15690,7 +15707,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="s">
         <v>7</v>
       </c>
@@ -15740,7 +15757,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="13" t="s">
         <v>7</v>
       </c>
@@ -15790,7 +15807,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202" s="13" t="s">
         <v>7</v>
       </c>
@@ -15840,7 +15857,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="s">
         <v>7</v>
       </c>
@@ -15884,7 +15901,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204" s="13" t="s">
         <v>7</v>
       </c>
@@ -15928,7 +15945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205" s="13" t="s">
         <v>7</v>
       </c>
@@ -15981,7 +15998,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="s">
         <v>7</v>
       </c>
@@ -16034,7 +16051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="s">
         <v>7</v>
       </c>
@@ -16087,7 +16104,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="s">
         <v>7</v>
       </c>
@@ -16140,7 +16157,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="s">
         <v>7</v>
       </c>
@@ -16193,7 +16210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="s">
         <v>7</v>
       </c>
@@ -16246,7 +16263,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
         <v>7</v>
       </c>
@@ -16299,7 +16316,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212" s="13" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16369,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="s">
         <v>7</v>
       </c>
@@ -16405,7 +16422,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="s">
         <v>7</v>
       </c>
@@ -16455,7 +16472,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="s">
         <v>7</v>
       </c>
@@ -16508,7 +16525,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="s">
         <v>7</v>
       </c>
@@ -16561,7 +16578,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="s">
         <v>7</v>
       </c>
@@ -16614,7 +16631,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="s">
         <v>7</v>
       </c>
@@ -16664,7 +16681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="s">
         <v>9</v>
       </c>
@@ -16714,7 +16731,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="s">
         <v>12</v>
       </c>
@@ -16764,7 +16781,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="s">
         <v>12</v>
       </c>
@@ -16817,7 +16834,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="s">
         <v>12</v>
       </c>
@@ -16870,7 +16887,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
         <v>12</v>
       </c>
@@ -16923,7 +16940,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="s">
         <v>12</v>
       </c>
@@ -16976,7 +16993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="s">
         <v>12</v>
       </c>
@@ -17029,7 +17046,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226" s="13" t="s">
         <v>12</v>
       </c>
@@ -17082,7 +17099,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="s">
         <v>12</v>
       </c>
@@ -17135,7 +17152,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="s">
         <v>12</v>
       </c>
@@ -17188,7 +17205,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="s">
         <v>12</v>
       </c>
@@ -17238,7 +17255,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230" s="13" t="s">
         <v>12</v>
       </c>
@@ -17291,7 +17308,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +17361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="s">
         <v>12</v>
       </c>
@@ -17397,7 +17414,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233" s="13" t="s">
         <v>12</v>
       </c>
@@ -17450,7 +17467,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="s">
         <v>12</v>
       </c>
@@ -17503,7 +17520,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235" s="14" t="s">
         <v>3</v>
       </c>
@@ -17544,7 +17561,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236" s="14" t="s">
         <v>3</v>
       </c>
@@ -17588,7 +17605,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237" s="14" t="s">
         <v>3</v>
       </c>
@@ -17632,7 +17649,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238" s="14" t="s">
         <v>3</v>
       </c>
@@ -17673,7 +17690,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="s">
         <v>3</v>
       </c>
@@ -17717,7 +17734,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240" s="14" t="s">
         <v>3</v>
       </c>
@@ -17761,7 +17778,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="s">
         <v>6</v>
       </c>
@@ -17811,7 +17828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242" s="13" t="s">
         <v>0</v>
       </c>
@@ -17861,7 +17878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243" s="13" t="s">
         <v>0</v>
       </c>
@@ -17911,7 +17928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244" s="13" t="s">
         <v>0</v>
       </c>
@@ -17961,7 +17978,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245" s="13" t="s">
         <v>0</v>
       </c>
@@ -18011,7 +18028,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246" s="13" t="s">
         <v>0</v>
       </c>
@@ -18058,7 +18075,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247" s="13" t="s">
         <v>0</v>
       </c>
@@ -18102,7 +18119,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248" s="13" t="s">
         <v>0</v>
       </c>
@@ -18152,7 +18169,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="s">
         <v>0</v>
       </c>
@@ -18202,7 +18219,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="s">
         <v>0</v>
       </c>
@@ -18252,7 +18269,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="s">
         <v>0</v>
       </c>
@@ -18302,7 +18319,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="s">
         <v>0</v>
       </c>
@@ -18352,7 +18369,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="s">
         <v>0</v>
       </c>
@@ -18402,7 +18419,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="s">
         <v>0</v>
       </c>
@@ -18446,7 +18463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="s">
         <v>0</v>
       </c>
@@ -18493,7 +18510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="s">
         <v>0</v>
       </c>
@@ -18543,7 +18560,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="s">
         <v>0</v>
       </c>
@@ -18590,7 +18607,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="13" t="s">
         <v>0</v>
       </c>
@@ -18634,7 +18651,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="s">
         <v>0</v>
       </c>
@@ -18684,7 +18701,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="13" t="s">
         <v>0</v>
       </c>
@@ -18734,7 +18751,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261" s="13" t="s">
         <v>0</v>
       </c>
@@ -18784,7 +18801,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="s">
         <v>0</v>
       </c>
@@ -18828,7 +18845,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263" s="13" t="s">
         <v>0</v>
       </c>
@@ -18872,7 +18889,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="s">
         <v>0</v>
       </c>
@@ -18916,7 +18933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265" s="13" t="s">
         <v>0</v>
       </c>
@@ -18966,7 +18983,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266" s="13" t="s">
         <v>0</v>
       </c>
@@ -19010,7 +19027,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267" s="13" t="s">
         <v>0</v>
       </c>
@@ -19060,7 +19077,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268" s="13" t="s">
         <v>0</v>
       </c>
@@ -19104,7 +19121,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269" s="13" t="s">
         <v>0</v>
       </c>
@@ -19148,7 +19165,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="s">
         <v>0</v>
       </c>
@@ -19198,7 +19215,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="s">
         <v>0</v>
       </c>
@@ -19242,7 +19259,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="s">
         <v>0</v>
       </c>
@@ -19286,7 +19303,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="s">
         <v>0</v>
       </c>
@@ -19336,7 +19353,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="s">
         <v>0</v>
       </c>
@@ -19386,7 +19403,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="s">
         <v>0</v>
       </c>
@@ -19436,7 +19453,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="s">
         <v>0</v>
       </c>
@@ -19486,7 +19503,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="s">
         <v>0</v>
       </c>
@@ -19533,7 +19550,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278" s="13" t="s">
         <v>0</v>
       </c>
@@ -19583,7 +19600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279" s="13" t="s">
         <v>0</v>
       </c>
@@ -19627,7 +19644,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="s">
         <v>0</v>
       </c>
@@ -19671,7 +19688,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="s">
         <v>0</v>
       </c>
@@ -19724,7 +19741,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="s">
         <v>0</v>
       </c>
@@ -19777,7 +19794,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="s">
         <v>0</v>
       </c>
@@ -19830,7 +19847,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284" s="13" t="s">
         <v>0</v>
       </c>
@@ -19883,7 +19900,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285" s="13" t="s">
         <v>0</v>
       </c>
@@ -19936,7 +19953,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="s">
         <v>0</v>
       </c>
@@ -19989,7 +20006,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="s">
         <v>0</v>
       </c>
@@ -20042,7 +20059,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="s">
         <v>0</v>
       </c>
@@ -20095,7 +20112,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="s">
         <v>4</v>
       </c>
@@ -20145,7 +20162,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290" s="14" t="s">
         <v>11</v>
       </c>
@@ -20186,7 +20203,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="s">
         <v>2</v>
       </c>
@@ -20236,7 +20253,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="s">
         <v>2</v>
       </c>
@@ -20286,7 +20303,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="s">
         <v>2</v>
       </c>
@@ -20333,7 +20350,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294" s="13" t="s">
         <v>2</v>
       </c>
@@ -20383,7 +20400,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295" s="13" t="s">
         <v>2</v>
       </c>
@@ -20433,7 +20450,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296" s="13" t="s">
         <v>2</v>
       </c>
@@ -20483,7 +20500,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297" s="13" t="s">
         <v>2</v>
       </c>
@@ -20533,7 +20550,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298" s="13" t="s">
         <v>2</v>
       </c>
@@ -20583,7 +20600,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299" s="13" t="s">
         <v>2</v>
       </c>
@@ -20636,7 +20653,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="300" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="45" t="s">
         <v>5</v>
       </c>
@@ -20683,7 +20700,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301" s="13" t="s">
         <v>1</v>
       </c>
@@ -20733,7 +20750,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302" s="14" t="s">
         <v>14</v>
       </c>
@@ -20774,7 +20791,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303" s="14" t="s">
         <v>13</v>
       </c>
@@ -20815,7 +20832,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304" s="14" t="s">
         <v>13</v>
       </c>
@@ -20856,7 +20873,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305" s="14" t="s">
         <v>13</v>
       </c>
@@ -20897,7 +20914,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A306" s="14" t="s">
         <v>13</v>
       </c>
@@ -20938,7 +20955,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A307" s="14" t="s">
         <v>13</v>
       </c>
@@ -20979,7 +20996,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308" s="14" t="s">
         <v>13</v>
       </c>
@@ -21020,7 +21037,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309" s="14" t="s">
         <v>10</v>
       </c>
@@ -21070,7 +21087,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310" s="14" t="s">
         <v>10</v>
       </c>
@@ -21120,7 +21137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A311" s="14" t="s">
         <v>10</v>
       </c>
@@ -21173,7 +21190,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312" s="14" t="s">
         <v>378</v>
       </c>
@@ -21214,7 +21231,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313" s="14" t="s">
         <v>348</v>
       </c>
@@ -21264,7 +21281,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A314" s="14" t="s">
         <v>348</v>
       </c>
@@ -21314,7 +21331,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A315" s="14" t="s">
         <v>348</v>
       </c>
@@ -21364,7 +21381,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316" s="14" t="s">
         <v>348</v>
       </c>
@@ -21414,7 +21431,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="s">
         <v>311</v>
       </c>
@@ -21464,7 +21481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="s">
         <v>311</v>
       </c>
@@ -21514,7 +21531,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="s">
         <v>311</v>
       </c>
@@ -21564,7 +21581,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="s">
         <v>311</v>
       </c>
@@ -21611,7 +21628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="s">
         <v>311</v>
       </c>
@@ -21658,7 +21675,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="s">
         <v>311</v>
       </c>
@@ -21708,7 +21725,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="s">
         <v>311</v>
       </c>
@@ -21755,7 +21772,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="s">
         <v>311</v>
       </c>
@@ -21802,7 +21819,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="s">
         <v>311</v>
       </c>
@@ -21846,7 +21863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="s">
         <v>311</v>
       </c>
@@ -21896,7 +21913,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="s">
         <v>311</v>
       </c>
@@ -21946,7 +21963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="s">
         <v>311</v>
       </c>
@@ -21996,7 +22013,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="s">
         <v>311</v>
       </c>
@@ -22046,7 +22063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="s">
         <v>311</v>
       </c>
@@ -22096,7 +22113,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="s">
         <v>311</v>
       </c>
@@ -22146,7 +22163,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="s">
         <v>311</v>
       </c>
@@ -22190,7 +22207,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="s">
         <v>311</v>
       </c>
@@ -22240,7 +22257,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="s">
         <v>311</v>
       </c>
@@ -22290,7 +22307,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="s">
         <v>311</v>
       </c>
@@ -22340,7 +22357,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="s">
         <v>311</v>
       </c>
@@ -22387,7 +22404,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="s">
         <v>311</v>
       </c>
@@ -22437,7 +22454,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="s">
         <v>311</v>
       </c>
@@ -22487,7 +22504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="s">
         <v>311</v>
       </c>
@@ -22537,7 +22554,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="340" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="s">
         <v>311</v>
       </c>
@@ -22590,7 +22607,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="s">
         <v>311</v>
       </c>
@@ -22634,7 +22651,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="s">
         <v>311</v>
       </c>
@@ -22684,7 +22701,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="s">
         <v>311</v>
       </c>
@@ -22734,7 +22751,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A344" s="14" t="s">
         <v>152</v>
       </c>
@@ -22784,7 +22801,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A345" s="14" t="s">
         <v>152</v>
       </c>
@@ -22837,7 +22854,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A346" s="14" t="s">
         <v>152</v>
       </c>
@@ -22890,7 +22907,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="s">
         <v>155</v>
       </c>
@@ -22943,7 +22960,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A348" s="14"/>
       <c r="B348" s="14" t="s">
         <v>115</v>
@@ -22976,7 +22993,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B349" s="14" t="s">
         <v>384</v>
       </c>
@@ -23006,7 +23023,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A350" s="14"/>
       <c r="B350" s="14" t="s">
         <v>387</v>
@@ -23045,13 +23062,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" s="14"/>
       <c r="Q351" s="14"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="s">
         <v>392</v>
       </c>
@@ -23101,7 +23118,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="s">
         <v>392</v>
       </c>
@@ -23151,7 +23168,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="s">
         <v>392</v>
       </c>
@@ -23198,7 +23215,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="s">
         <v>392</v>
       </c>
@@ -23248,7 +23265,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="s">
         <v>392</v>
       </c>
@@ -23298,7 +23315,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="s">
         <v>392</v>
       </c>
@@ -23348,7 +23365,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="s">
         <v>392</v>
       </c>
@@ -23395,7 +23412,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="s">
         <v>392</v>
       </c>
@@ -23442,7 +23459,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="s">
         <v>392</v>
       </c>
@@ -23486,7 +23503,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="s">
         <v>392</v>
       </c>
@@ -23530,7 +23547,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="s">
         <v>392</v>
       </c>
@@ -23574,7 +23591,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="s">
         <v>412</v>
       </c>
@@ -23618,7 +23635,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="s">
         <v>412</v>
       </c>
@@ -23671,7 +23688,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="s">
         <v>412</v>
       </c>
@@ -23724,7 +23741,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="s">
         <v>412</v>
       </c>
@@ -23777,7 +23794,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="s">
         <v>422</v>
       </c>
@@ -23821,7 +23838,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="s">
         <v>422</v>
       </c>
@@ -23874,7 +23891,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="s">
         <v>422</v>
       </c>
@@ -23924,7 +23941,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="s">
         <v>422</v>
       </c>
@@ -23974,7 +23991,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="s">
         <v>422</v>
       </c>
@@ -24024,7 +24041,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="s">
         <v>420</v>
       </c>
@@ -24071,7 +24088,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="s">
         <v>420</v>
       </c>
@@ -24115,7 +24132,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="s">
         <v>420</v>
       </c>
@@ -24168,7 +24185,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="s">
         <v>418</v>
       </c>
@@ -24221,7 +24238,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="s">
         <v>418</v>
       </c>
@@ -24274,7 +24291,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="s">
         <v>418</v>
       </c>
@@ -24327,7 +24344,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="s">
         <v>418</v>
       </c>
@@ -24371,7 +24388,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="s">
         <v>418</v>
       </c>
@@ -24415,7 +24432,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="s">
         <v>418</v>
       </c>
@@ -24459,7 +24476,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="s">
         <v>418</v>
       </c>
@@ -24503,7 +24520,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="s">
         <v>418</v>
       </c>
@@ -24547,7 +24564,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="s">
         <v>418</v>
       </c>
@@ -24591,7 +24608,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="s">
         <v>418</v>
       </c>
@@ -24635,7 +24652,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="s">
         <v>418</v>
       </c>
@@ -24679,7 +24696,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="s">
         <v>418</v>
       </c>
@@ -24732,7 +24749,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="s">
         <v>418</v>
       </c>
@@ -24785,7 +24802,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="s">
         <v>418</v>
       </c>
@@ -24838,7 +24855,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="s">
         <v>448</v>
       </c>
@@ -24888,7 +24905,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="s">
         <v>448</v>
       </c>
@@ -24941,7 +24958,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="s">
         <v>448</v>
       </c>
@@ -24994,7 +25011,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="s">
         <v>448</v>
       </c>
@@ -25044,7 +25061,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="s">
         <v>400</v>
       </c>
@@ -25088,7 +25105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="s">
         <v>400</v>
       </c>
@@ -25132,7 +25149,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A396" s="13" t="s">
         <v>400</v>
       </c>
@@ -25179,7 +25196,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A397" s="13" t="s">
         <v>400</v>
       </c>
@@ -25229,7 +25246,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="s">
         <v>400</v>
       </c>
@@ -25282,7 +25299,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A399" s="13" t="s">
         <v>400</v>
       </c>
@@ -25332,7 +25349,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A400" s="13" t="s">
         <v>400</v>
       </c>
@@ -25385,7 +25402,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A401" s="13" t="s">
         <v>400</v>
       </c>
@@ -25432,7 +25449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="s">
         <v>400</v>
       </c>
@@ -25479,7 +25496,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A403" s="13" t="s">
         <v>400</v>
       </c>
@@ -25526,7 +25543,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A404" s="13" t="s">
         <v>408</v>
       </c>
@@ -25576,7 +25593,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="s">
         <v>408</v>
       </c>
@@ -25626,7 +25643,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A406" s="13" t="s">
         <v>408</v>
       </c>
@@ -25676,7 +25693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A407" s="13" t="s">
         <v>408</v>
       </c>
@@ -25726,7 +25743,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="s">
         <v>408</v>
       </c>
@@ -25770,7 +25787,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A409" s="13" t="s">
         <v>408</v>
       </c>
@@ -25814,7 +25831,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A410" s="13" t="s">
         <v>408</v>
       </c>
@@ -25858,7 +25875,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A411" s="13" t="s">
         <v>408</v>
       </c>
@@ -25908,7 +25925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="s">
         <v>408</v>
       </c>
@@ -25961,7 +25978,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="s">
         <v>424</v>
       </c>
@@ -26011,7 +26028,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="s">
         <v>424</v>
       </c>
@@ -26061,7 +26078,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="s">
         <v>424</v>
       </c>
@@ -26105,7 +26122,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="s">
         <v>424</v>
       </c>
@@ -26149,7 +26166,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="s">
         <v>424</v>
       </c>
@@ -26193,7 +26210,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="s">
         <v>424</v>
       </c>
@@ -26246,7 +26263,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="s">
         <v>424</v>
       </c>
@@ -26299,7 +26316,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="s">
         <v>424</v>
       </c>
@@ -26352,7 +26369,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A421" s="13" t="s">
         <v>436</v>
       </c>
@@ -26393,7 +26410,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A422" s="13" t="s">
         <v>436</v>
       </c>
@@ -26434,7 +26451,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="s">
         <v>436</v>
       </c>
@@ -26484,7 +26501,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A424" s="13" t="s">
         <v>436</v>
       </c>
@@ -26528,7 +26545,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A425" s="13" t="s">
         <v>436</v>
       </c>
@@ -26569,7 +26586,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A426" s="13" t="s">
         <v>436</v>
       </c>
@@ -26613,7 +26630,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="s">
         <v>436</v>
       </c>
@@ -26657,7 +26674,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="s">
         <v>436</v>
       </c>
@@ -26698,7 +26715,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="s">
         <v>436</v>
       </c>
@@ -26739,7 +26756,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="s">
         <v>436</v>
       </c>
@@ -26780,7 +26797,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="s">
         <v>436</v>
       </c>
@@ -26821,7 +26838,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A432" s="13" t="s">
         <v>436</v>
       </c>
@@ -26862,7 +26879,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="s">
         <v>436</v>
       </c>
@@ -26912,7 +26929,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A434" s="13" t="s">
         <v>436</v>
       </c>
@@ -26962,7 +26979,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A435" s="13" t="s">
         <v>436</v>
       </c>
@@ -27012,7 +27029,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A436" s="13" t="s">
         <v>436</v>
       </c>
@@ -27062,7 +27079,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A437" s="13" t="s">
         <v>436</v>
       </c>
@@ -27103,7 +27120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="s">
         <v>436</v>
       </c>
@@ -27144,7 +27161,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="s">
         <v>436</v>
       </c>
@@ -27185,7 +27202,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="s">
         <v>436</v>
       </c>
@@ -27229,7 +27246,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A441" s="13" t="s">
         <v>436</v>
       </c>
@@ -27270,7 +27287,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="s">
         <v>436</v>
       </c>
@@ -27317,7 +27334,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A443" s="13" t="s">
         <v>436</v>
       </c>
@@ -27364,7 +27381,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A444" s="13" t="s">
         <v>444</v>
       </c>
@@ -27414,7 +27431,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A445" s="13" t="s">
         <v>444</v>
       </c>
@@ -27464,7 +27481,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A446" s="13" t="s">
         <v>444</v>
       </c>
@@ -27514,7 +27531,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="s">
         <v>444</v>
       </c>
@@ -27564,7 +27581,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="s">
         <v>444</v>
       </c>
@@ -27614,7 +27631,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="s">
         <v>444</v>
       </c>
@@ -27664,7 +27681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A450" s="13" t="s">
         <v>458</v>
       </c>
@@ -27714,7 +27731,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="s">
         <v>458</v>
       </c>
@@ -27767,7 +27784,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="s">
         <v>458</v>
       </c>
@@ -27811,7 +27828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A453" s="13" t="s">
         <v>458</v>
       </c>
@@ -27861,7 +27878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A454" s="13" t="s">
         <v>458</v>
       </c>
@@ -27911,7 +27928,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A455" s="13" t="s">
         <v>458</v>
       </c>
@@ -27964,7 +27981,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A456" s="13" t="s">
         <v>458</v>
       </c>
@@ -28017,7 +28034,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="s">
         <v>406</v>
       </c>
@@ -28058,7 +28075,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A458" s="13" t="s">
         <v>406</v>
       </c>
@@ -28099,7 +28116,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A459" s="13" t="s">
         <v>406</v>
       </c>
@@ -28140,7 +28157,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="s">
         <v>406</v>
       </c>
@@ -28181,7 +28198,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="s">
         <v>406</v>
       </c>
@@ -28222,7 +28239,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="s">
         <v>406</v>
       </c>
@@ -28263,7 +28280,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="s">
         <v>406</v>
       </c>
@@ -28304,7 +28321,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="s">
         <v>406</v>
       </c>
@@ -28357,7 +28374,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A465" s="13" t="s">
         <v>442</v>
       </c>
@@ -28407,7 +28424,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="s">
         <v>442</v>
       </c>
@@ -28454,7 +28471,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A467" s="13" t="s">
         <v>442</v>
       </c>
@@ -28504,7 +28521,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A468" s="13" t="s">
         <v>442</v>
       </c>
@@ -28557,7 +28574,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="s">
         <v>396</v>
       </c>
@@ -28595,7 +28612,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="s">
         <v>396</v>
       </c>
@@ -28642,7 +28659,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A471" s="13" t="s">
         <v>396</v>
       </c>
@@ -28680,7 +28697,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="s">
         <v>396</v>
       </c>
@@ -28718,7 +28735,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="s">
         <v>396</v>
       </c>
@@ -28756,7 +28773,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A474" s="13" t="s">
         <v>396</v>
       </c>
@@ -28797,7 +28814,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="s">
         <v>396</v>
       </c>
@@ -28838,7 +28855,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A476" s="13" t="s">
         <v>396</v>
       </c>
@@ -28882,7 +28899,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="s">
         <v>396</v>
       </c>
@@ -28923,7 +28940,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="s">
         <v>396</v>
       </c>
@@ -28967,7 +28984,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="s">
         <v>396</v>
       </c>
@@ -29008,7 +29025,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A480" s="13" t="s">
         <v>396</v>
       </c>
@@ -29052,7 +29069,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A481" s="13" t="s">
         <v>396</v>
       </c>
@@ -29102,7 +29119,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A482" s="13" t="s">
         <v>396</v>
       </c>
@@ -29143,7 +29160,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="s">
         <v>396</v>
       </c>
@@ -29190,7 +29207,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A484" s="13" t="s">
         <v>396</v>
       </c>
@@ -29237,7 +29254,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A485" s="13" t="s">
         <v>396</v>
       </c>
@@ -29281,7 +29298,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="s">
         <v>396</v>
       </c>
@@ -29325,7 +29342,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="s">
         <v>396</v>
       </c>
@@ -29369,7 +29386,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="s">
         <v>396</v>
       </c>
@@ -29413,7 +29430,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A489" s="13" t="s">
         <v>396</v>
       </c>
@@ -29457,7 +29474,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A490" s="13" t="s">
         <v>396</v>
       </c>
@@ -29501,7 +29518,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="s">
         <v>396</v>
       </c>
@@ -29554,7 +29571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A492" s="13" t="s">
         <v>396</v>
       </c>
@@ -29604,7 +29621,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="s">
         <v>396</v>
       </c>
@@ -29657,7 +29674,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A494" s="13" t="s">
         <v>396</v>
       </c>
@@ -29710,7 +29727,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="s">
         <v>396</v>
       </c>
@@ -29763,7 +29780,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="s">
         <v>396</v>
       </c>
@@ -29816,7 +29833,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="s">
         <v>396</v>
       </c>
@@ -29869,7 +29886,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="s">
         <v>396</v>
       </c>
@@ -29913,7 +29930,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A499" s="13" t="s">
         <v>396</v>
       </c>
@@ -29957,7 +29974,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A500" s="13" t="s">
         <v>396</v>
       </c>
@@ -30001,7 +30018,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A501" s="13" t="s">
         <v>396</v>
       </c>
@@ -30045,7 +30062,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A502" s="13" t="s">
         <v>396</v>
       </c>
@@ -30089,7 +30106,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A503" s="13" t="s">
         <v>396</v>
       </c>
@@ -30133,7 +30150,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A504" s="13" t="s">
         <v>396</v>
       </c>
@@ -30177,7 +30194,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A505" s="13" t="s">
         <v>396</v>
       </c>
@@ -30215,7 +30232,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A506" s="13" t="s">
         <v>396</v>
       </c>
@@ -30253,7 +30270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A507" s="13" t="s">
         <v>396</v>
       </c>
@@ -30291,7 +30308,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A508" s="13" t="s">
         <v>396</v>
       </c>
@@ -30338,7 +30355,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A509" s="13" t="s">
         <v>396</v>
       </c>
@@ -30385,7 +30402,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="s">
         <v>396</v>
       </c>
@@ -30432,7 +30449,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A511" s="13" t="s">
         <v>396</v>
       </c>
@@ -30479,7 +30496,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A512" s="13" t="s">
         <v>396</v>
       </c>
@@ -30526,7 +30543,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="s">
         <v>396</v>
       </c>
@@ -30573,7 +30590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A514" s="13" t="s">
         <v>396</v>
       </c>
@@ -30623,7 +30640,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A515" s="13" t="s">
         <v>396</v>
       </c>
@@ -30676,7 +30693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A516" s="13" t="s">
         <v>396</v>
       </c>
@@ -30720,7 +30737,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A517" s="13" t="s">
         <v>396</v>
       </c>
@@ -30764,7 +30781,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A518" s="13" t="s">
         <v>396</v>
       </c>
@@ -30811,7 +30828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A519" s="13" t="s">
         <v>396</v>
       </c>
@@ -30858,7 +30875,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A520" s="13" t="s">
         <v>396</v>
       </c>
@@ -30905,7 +30922,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A521" s="13" t="s">
         <v>396</v>
       </c>
@@ -30952,7 +30969,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A522" s="13" t="s">
         <v>396</v>
       </c>
@@ -30999,7 +31016,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A523" s="13" t="s">
         <v>396</v>
       </c>
@@ -31046,7 +31063,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A524" s="13" t="s">
         <v>396</v>
       </c>
@@ -31096,7 +31113,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A525" s="13" t="s">
         <v>396</v>
       </c>
@@ -31149,7 +31166,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A526" s="13" t="s">
         <v>396</v>
       </c>
@@ -31196,7 +31213,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A527" s="13" t="s">
         <v>396</v>
       </c>
@@ -31243,7 +31260,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A528" s="13" t="s">
         <v>396</v>
       </c>
@@ -31290,7 +31307,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A529" s="13" t="s">
         <v>396</v>
       </c>
@@ -31337,7 +31354,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A530" s="13" t="s">
         <v>396</v>
       </c>
@@ -31390,7 +31407,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="531" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A531" s="25" t="s">
         <v>394</v>
       </c>
@@ -31440,7 +31457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="532" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A532" s="25" t="s">
         <v>414</v>
       </c>
@@ -31493,7 +31510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="533" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A533" s="25" t="s">
         <v>428</v>
       </c>
@@ -31543,7 +31560,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="534" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A534" s="25" t="s">
         <v>430</v>
       </c>
@@ -31593,7 +31610,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A535" s="25" t="s">
         <v>434</v>
       </c>
@@ -31643,7 +31660,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A536" s="25" t="s">
         <v>434</v>
       </c>
@@ -31693,7 +31710,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="537" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A537" s="25" t="s">
         <v>446</v>
       </c>
@@ -31746,7 +31763,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="538" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A538" s="25" t="s">
         <v>452</v>
       </c>
@@ -31796,7 +31813,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A539" s="25" t="s">
         <v>454</v>
       </c>
@@ -31846,7 +31863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A540" s="25" t="s">
         <v>454</v>
       </c>
@@ -31893,7 +31910,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A541" s="25" t="s">
         <v>456</v>
       </c>
@@ -31943,7 +31960,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A542" s="25" t="s">
         <v>456</v>
       </c>
@@ -31990,7 +32007,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="543" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A543" s="25" t="s">
         <v>432</v>
       </c>
@@ -32001,10 +32018,10 @@
         <v>481</v>
       </c>
       <c r="D543" s="25">
+        <v>8.9740813067700747E-3</v>
+      </c>
+      <c r="E543" s="25">
         <v>3.2520199999999999</v>
-      </c>
-      <c r="E543" s="25">
-        <v>8.9740813067700747E-3</v>
       </c>
       <c r="F543" s="25">
         <v>1</v>
@@ -32039,9 +32056,9 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -32079,7 +32096,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -32114,7 +32131,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -32149,7 +32166,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -32184,7 +32201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
@@ -32219,7 +32236,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
@@ -32254,7 +32271,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -32289,7 +32306,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -32324,7 +32341,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
@@ -32359,7 +32376,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
@@ -32394,7 +32411,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -32429,7 +32446,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
@@ -32464,7 +32481,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -32499,7 +32516,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -32534,7 +32551,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
@@ -32569,7 +32586,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
@@ -32604,7 +32621,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>6</v>
       </c>
@@ -32639,7 +32656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -32674,7 +32691,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
@@ -32709,7 +32726,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
@@ -32744,7 +32761,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -32779,7 +32796,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -32814,7 +32831,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>4</v>
       </c>
@@ -32849,7 +32866,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
@@ -32884,7 +32901,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
@@ -32919,7 +32936,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>1</v>
       </c>
@@ -32954,7 +32971,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>1</v>
       </c>
@@ -32989,7 +33006,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>1</v>
       </c>
@@ -33024,7 +33041,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>1</v>
       </c>
@@ -33059,7 +33076,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>1</v>
       </c>
@@ -33094,1064 +33111,1064 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C233" s="9"/>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C235" s="9"/>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C236" s="9"/>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C237" s="9"/>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C238" s="9"/>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C239" s="9"/>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C240" s="9"/>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C241" s="9"/>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C242" s="9"/>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C243" s="9"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C244" s="9"/>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C245" s="9"/>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C246" s="9"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="12"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="12"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
       <c r="K292" s="7"/>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="12"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="12"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -34173,38 +34190,38 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="81.453125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11">
         <v>-5.2990300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13">
         <f>(10^-5.29903)*10^3.25202</f>
         <v>8.9740813067700747E-3</v>
@@ -34224,9 +34241,9 @@
       <selection activeCell="A2" sqref="A2:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -34239,7 +34256,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>392</v>
       </c>
@@ -34252,7 +34269,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>394</v>
       </c>
@@ -34265,7 +34282,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>396</v>
       </c>
@@ -34278,7 +34295,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>398</v>
       </c>
@@ -34291,7 +34308,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>400</v>
       </c>
@@ -34304,7 +34321,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>402</v>
       </c>
@@ -34317,7 +34334,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>404</v>
       </c>
@@ -34330,7 +34347,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>406</v>
       </c>
@@ -34343,7 +34360,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -34356,7 +34373,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>410</v>
       </c>
@@ -34369,7 +34386,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>412</v>
       </c>
@@ -34382,7 +34399,7 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>414</v>
       </c>
@@ -34395,7 +34412,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>416</v>
       </c>
@@ -34408,7 +34425,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>418</v>
       </c>
@@ -34421,7 +34438,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>420</v>
       </c>
@@ -34434,7 +34451,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -34447,7 +34464,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>424</v>
       </c>
@@ -34460,7 +34477,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>426</v>
       </c>
@@ -34473,7 +34490,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>428</v>
       </c>
@@ -34484,7 +34501,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>430</v>
       </c>
@@ -34497,7 +34514,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>458</v>
       </c>
@@ -34510,7 +34527,7 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>432</v>
       </c>
@@ -34523,7 +34540,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
         <v>434</v>
       </c>
@@ -34536,7 +34553,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>436</v>
       </c>
@@ -34549,7 +34566,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>444</v>
       </c>
@@ -34562,7 +34579,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>438</v>
       </c>
@@ -34575,7 +34592,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>440</v>
       </c>
@@ -34588,7 +34605,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>442</v>
       </c>
@@ -34601,7 +34618,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>446</v>
       </c>
@@ -34614,7 +34631,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>448</v>
       </c>
@@ -34627,7 +34644,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>450</v>
       </c>
@@ -34640,7 +34657,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>452</v>
       </c>
@@ -34653,7 +34670,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>454</v>
       </c>
@@ -34666,7 +34683,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>456</v>
       </c>
@@ -34679,12 +34696,12 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -34708,6 +34725,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041EFC6F9F0A5614B83EB4E485B6B9F57" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbcd368566164a7a26332ccc87164d6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="472f5e33-464b-4ce1-8fad-4a549ae34fd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60915f1ef7b396f70aac4a8774eff75f" ns3:_="">
     <xsd:import namespace="472f5e33-464b-4ce1-8fad-4a549ae34fd7"/>
@@ -34865,12 +34888,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{856B2C5A-8114-45AA-A878-76D6C14716F6}">
   <ds:schemaRefs>
@@ -34880,6 +34897,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB7D8FD-B233-4D0E-9CD8-DCB94A9579D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="472f5e33-464b-4ce1-8fad-4a549ae34fd7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00EE4E70-A62C-43FE-AAAB-AA3267D498BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34895,20 +34928,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB7D8FD-B233-4D0E-9CD8-DCB94A9579D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="472f5e33-464b-4ce1-8fad-4a549ae34fd7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>